--- a/data/Data tables for Australia's mothers and babies 2018—data visualisations/Table 1 notes.xlsx
+++ b/data/Data tables for Australia's mothers and babies 2018—data visualisations/Table 1 notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d08107d86ebdc691/Desktop/Project/Maternal Health and Adoption/Data tables for Australia's mothers and babies 2018—data visualisations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d08107d86ebdc691/Documents/GitHub/finalproject/data/Data tables for Australia's mothers and babies 2018—data visualisations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4826885-4837-49FE-B80D-68081C35C3B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5997B22D-142C-4F97-BFC6-2C5D67530E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7A2758B-6923-4825-8F05-86D10C24C7D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81C22F43-017B-4F80-8311-4EF54E260E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 notes" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{DBE06B78-7D6A-4D5B-977C-943A3D119642}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{834FE1F0-B058-455D-8A7F-E9E385E56E59}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,6 +468,7 @@
       <sheetName val="Table 6.4"/>
       <sheetName val="Table 1 notes"/>
       <sheetName val="Table 2 notes"/>
+      <sheetName val="Sheet1"/>
       <sheetName val="Table 3 notes"/>
       <sheetName val="Table 4 notes"/>
       <sheetName val="Table 5 notes"/>
@@ -510,6 +511,7 @@
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
       <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7298,12 +7300,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4919E9EF-ED54-4167-AFD6-DD4B3E2C8366}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC33CE83-3F60-4459-B20E-FE29622678EE}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
